--- a/기획/테이블/몬스터 데이터 테이블.xlsx
+++ b/기획/테이블/몬스터 데이터 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59D33DC6-99BE-4C0B-96A2-CB01E94D1BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CA8C21-49AE-40CC-A3B7-24CF6AD2FF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13365" yWindow="4410" windowWidth="20220" windowHeight="11295" xr2:uid="{9D7966CB-A03D-4C86-B537-04AD34C152B8}"/>
+    <workbookView xWindow="2565" yWindow="2430" windowWidth="20220" windowHeight="11295" xr2:uid="{9D7966CB-A03D-4C86-B537-04AD34C152B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Current_HP</t>
   </si>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>isEscape</t>
+  </si>
+  <si>
+    <t>StringSample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -86,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,13 +145,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +171,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,15 +490,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD85FAA0-4E8C-4DE6-9E25-F01BAEE54C48}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +520,11 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -526,8 +549,11 @@
       <c r="H2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -552,8 +578,11 @@
       <c r="H3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5000</v>
       </c>
@@ -578,8 +607,11 @@
       <c r="H4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5001</v>
       </c>
@@ -604,8 +636,11 @@
       <c r="H5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -630,8 +665,11 @@
       <c r="H6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10001</v>
       </c>
@@ -656,8 +694,11 @@
       <c r="H7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15000</v>
       </c>
@@ -682,8 +723,11 @@
       <c r="H8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>15001</v>
       </c>
@@ -707,6 +751,9 @@
       </c>
       <c r="H9" t="b">
         <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
